--- a/tp3/Classeur1.xlsx
+++ b/tp3/Classeur1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="21">
   <si>
     <t>frames/second</t>
   </si>
@@ -68,13 +68,25 @@
     <t>allsoft</t>
   </si>
   <si>
-    <t>1x w/o</t>
-  </si>
-  <si>
-    <t>1x w</t>
-  </si>
-  <si>
-    <t>2x w</t>
+    <t>x</t>
+  </si>
+  <si>
+    <t>pipeline</t>
+  </si>
+  <si>
+    <t>unroll</t>
+  </si>
+  <si>
+    <t>RAM</t>
+  </si>
+  <si>
+    <t>2x w pipeline</t>
+  </si>
+  <si>
+    <t>1x w pipeline</t>
+  </si>
+  <si>
+    <t>1x w/o  optimization</t>
   </si>
 </sst>
 </file>
@@ -105,12 +117,236 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="17">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -118,17 +354,101 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -412,20 +732,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q22"/>
+  <dimension ref="A1:Q54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="11.42578125" style="3"/>
-    <col min="6" max="6" width="18.28515625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" style="3" customWidth="1"/>
     <col min="7" max="17" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
         <v>8.9019790000000008</v>
       </c>
@@ -440,27 +760,27 @@
       <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4" t="s">
+      <c r="H2" s="7"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="8"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -469,18 +789,18 @@
       <c r="B3" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4" t="s">
+      <c r="E3" s="9"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="20" t="s">
         <v>4</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="20" t="s">
         <v>4</v>
       </c>
       <c r="K3" s="4"/>
@@ -491,42 +811,42 @@
       </c>
       <c r="O3" s="4"/>
       <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q3" s="10"/>
+    </row>
+    <row r="4" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>9.442577</v>
       </c>
       <c r="B4" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="3" t="s">
+      <c r="E4" s="12"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L4" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="M4" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="N4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="O4" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="P4" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="Q4" s="14" t="s">
         <v>10</v>
       </c>
     </row>
@@ -537,21 +857,45 @@
       <c r="B5" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="28">
         <v>3.2</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="29">
         <v>15.7</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="30">
         <f>ABS(G5-H5)/G5</f>
         <v>3.90625</v>
+      </c>
+      <c r="J5" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="L5" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="M5" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="N5" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="O5" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="P5" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q5" s="17" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -561,20 +905,36 @@
       <c r="B6" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="3">
+      <c r="E6" s="9"/>
+      <c r="F6" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="31">
         <v>9.33</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="5">
         <v>9.33</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="25">
         <f t="shared" ref="I6:I8" si="0">ABS(G6-H6)/G6</f>
         <v>0</v>
       </c>
+      <c r="J6" s="23">
+        <v>1866</v>
+      </c>
+      <c r="K6" s="5">
+        <v>1620</v>
+      </c>
+      <c r="L6" s="5">
+        <v>32</v>
+      </c>
+      <c r="M6" s="5">
+        <v>8</v>
+      </c>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="11"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -583,30 +943,60 @@
       <c r="B7" t="s">
         <v>0</v>
       </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" s="5" t="e">
+      <c r="E7" s="9"/>
+      <c r="F7" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="32">
+        <v>9.5399999999999991</v>
+      </c>
+      <c r="H7" s="5"/>
+      <c r="I7" s="25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J7" s="23">
+        <v>3507</v>
+      </c>
+      <c r="K7" s="5">
+        <v>3474</v>
+      </c>
+      <c r="L7" s="5">
+        <v>32</v>
+      </c>
+      <c r="M7" s="5">
+        <v>33</v>
+      </c>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="11"/>
+    </row>
+    <row r="8" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>9.3996130000000004</v>
+      </c>
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="12"/>
+      <c r="F8" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="33"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="26" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>9.3996130000000004</v>
-      </c>
-      <c r="B8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I8" s="5" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="J8" s="21"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="14"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -663,6 +1053,18 @@
       <c r="B15" t="s">
         <v>0</v>
       </c>
+      <c r="E15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
@@ -671,16 +1073,46 @@
       <c r="B16" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="3">
+        <v>4626</v>
+      </c>
+      <c r="F16" s="3">
+        <v>6362</v>
+      </c>
+      <c r="G16" s="3">
+        <v>32</v>
+      </c>
+      <c r="H16" s="3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>9.2071819999999995</v>
       </c>
       <c r="B17" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="3">
+        <v>3474</v>
+      </c>
+      <c r="F17" s="3">
+        <v>3507</v>
+      </c>
+      <c r="G17" s="3">
+        <v>32</v>
+      </c>
+      <c r="H17" s="3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>9.1780639999999991</v>
       </c>
@@ -688,7 +1120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>9.2153130000000001</v>
       </c>
@@ -696,7 +1128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>9.1095919999999992</v>
       </c>
@@ -704,7 +1136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>9.5028020000000009</v>
       </c>
@@ -712,10 +1144,252 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <f>AVERAGE(A1:A21)</f>
         <v>9.325901142857143</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>8.9421610000000005</v>
+      </c>
+      <c r="B24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>9.5321669999999994</v>
+      </c>
+      <c r="B25" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>9.5308189999999993</v>
+      </c>
+      <c r="B26" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>9.5648959999999992</v>
+      </c>
+      <c r="B27" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>9.5139499999999995</v>
+      </c>
+      <c r="B28" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>9.5098859999999998</v>
+      </c>
+      <c r="B29" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>9.5148539999999997</v>
+      </c>
+      <c r="B30" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>9.5718809999999994</v>
+      </c>
+      <c r="B31" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>9.5158009999999997</v>
+      </c>
+      <c r="B32" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>9.5144359999999999</v>
+      </c>
+      <c r="B33" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>9.4924540000000004</v>
+      </c>
+      <c r="B34" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>9.4368130000000008</v>
+      </c>
+      <c r="B35" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>9.4400180000000002</v>
+      </c>
+      <c r="B36" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>9.3969419999999992</v>
+      </c>
+      <c r="B37" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>9.3931780000000007</v>
+      </c>
+      <c r="B38" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <f>AVERAGE(A24:A38)</f>
+        <v>9.4580170666666668</v>
+      </c>
+      <c r="B39" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>9.0680759999999996</v>
+      </c>
+      <c r="B41" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>9.6277430000000006</v>
+      </c>
+      <c r="B42" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>9.6220789999999994</v>
+      </c>
+      <c r="B43" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>9.6070139999999995</v>
+      </c>
+      <c r="B44" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>9.6263579999999997</v>
+      </c>
+      <c r="B45" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>9.6187749999999994</v>
+      </c>
+      <c r="B46" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>9.5733259999999998</v>
+      </c>
+      <c r="B47" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>9.5883260000000003</v>
+      </c>
+      <c r="B48" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>9.5917349999999999</v>
+      </c>
+      <c r="B49" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>9.5542569999999998</v>
+      </c>
+      <c r="B50" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>9.5352209999999999</v>
+      </c>
+      <c r="B51" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>9.5167590000000004</v>
+      </c>
+      <c r="B52" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>9.5368890000000004</v>
+      </c>
+      <c r="B53" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
+        <f ca="1">AVERAGE(A41:A54)</f>
+        <v>9.5435813846153863</v>
+      </c>
+      <c r="B54" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
